--- a/회원목록_0308.xlsx
+++ b/회원목록_0308.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cnt\Desktop\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB60E57F-6981-40D8-8C96-07652F373EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EB24AB-31D6-495E-A37A-23F0FCE17A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="11535" windowWidth="28800" windowHeight="15465" xr2:uid="{8E54118A-5F68-4FCF-AEF6-8B6D31A16CB6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>점화걸면정화</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -602,7 +602,7 @@
   <dimension ref="C1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -819,47 +819,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
         <v>52</v>
-      </c>
-      <c r="D40" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
